--- a/Data Scraping/Pump2.xlsx
+++ b/Data Scraping/Pump2.xlsx
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.14</v>
+        <v>0.21</v>
       </c>
     </row>
   </sheetData>
@@ -482,7 +482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,6 +536,9 @@
       <c r="P1" s="1" t="n">
         <v>14</v>
       </c>
+      <c r="Q1" s="1" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -546,7 +549,7 @@
           <t>INDOOR</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>OUTDOOR TEMPERATURE (°CDB)</t>
         </is>
@@ -563,27 +566,27 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>25.0</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>30.0 32.0</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>35.0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>40.0</t>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>30 32</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -593,7 +596,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>°C °F</t>
+          <t>°C °C</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -628,35 +631,45 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>TC SHC PI TC SHC PI</t>
+          <t>TC</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>SHC PI TC SHC</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
+          <t>PI</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
           <t>TC</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>SHC</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>PI</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>TC</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>SHC</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>PI</t>
         </is>
@@ -668,22 +681,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>14.0 20</t>
+          <t>14.0 20.0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -693,47 +706,57 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>3.28 2.71 0.79 3.21 2.68 0.81</t>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>2.52 0.86 3.21 2.49</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
           <t>3.11</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
           <t>2.95</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0.94</t>
         </is>
       </c>
     </row>
@@ -743,7 +766,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>16.0 22</t>
+          <t>16.0 22.0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -753,12 +776,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -768,47 +791,57 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>3.44 2.67 0.79 3.38 2.64 0.82</t>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>2.48 0.86 3.38 2.45</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
           <t>3.28</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
           <t>3.11</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>2.53</t>
-        </is>
-      </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0.94</t>
         </is>
       </c>
     </row>
@@ -818,7 +851,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>18.0 25</t>
+          <t>18.0 25.0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -828,12 +861,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -843,47 +876,57 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>3.60 2.84 0.79 3.54 2.81 0.82</t>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>2.62 0.87 3.54 2.59</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
           <t>3.44</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
           <t>3.28</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0.95</t>
         </is>
       </c>
     </row>
@@ -903,12 +946,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -918,47 +961,57 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>3.68 3.03 0.80 3.62 3.01 0.82</t>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>2.78 0.87 3.62 2.75</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
           <t>3.52</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
           <t>3.36</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0.95</t>
         </is>
       </c>
     </row>
@@ -968,7 +1021,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>22.0 30</t>
+          <t>22.0 30.0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -978,12 +1031,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -993,47 +1046,57 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>3.93 2.95 0.80 3.86 2.92 0.83</t>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>2.69 0.88 3.86 2.67</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
           <t>3.76</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
           <t>3.60</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>2.83</t>
-        </is>
-      </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0.95</t>
         </is>
       </c>
     </row>
@@ -1043,7 +1106,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>24.0 32</t>
+          <t>24.0 32.0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1053,12 +1116,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1068,47 +1131,57 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>4.09 2.88 0.81 4.02 2.86 0.83</t>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>2.63 0.88 4.02 2.61</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
           <t>3.93</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>2.83</t>
-        </is>
-      </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
           <t>3.76</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>2.78</t>
-        </is>
-      </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0.96</t>
         </is>
       </c>
     </row>
@@ -1123,7 +1196,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1177,6 +1250,9 @@
       <c r="P1" s="1" t="n">
         <v>14</v>
       </c>
+      <c r="Q1" s="1" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1187,7 +1263,7 @@
           <t>INDOOR</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>OUTDOOR TEMPERATURE (°FDB)</t>
         </is>
@@ -1204,27 +1280,27 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>68.0</t>
+          <t>68</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>77.0</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>86.0 89.6</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>95.0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>104.0</t>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>86 90</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>104</t>
         </is>
       </c>
     </row>
@@ -1269,35 +1345,45 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>TC SHC PI TC SHC PI</t>
+          <t>TC</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>SHC PI TC SHC</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
+          <t>PI</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
           <t>TC</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>SHC</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>PI</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>TC</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>SHC</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>PI</t>
         </is>
@@ -1314,17 +1400,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12.30</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.77</t>
+          <t>9.01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1334,47 +1420,57 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>8.88</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>11.19 9.24 0.79 10.96 9.13 0.81</t>
+          <t>11.19</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>8.60 0.86 10.96 8.49</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
           <t>10.63</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>8.98</t>
-        </is>
-      </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>8.33</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
           <t>10.07</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>8.72</t>
-        </is>
-      </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0.94</t>
         </is>
       </c>
     </row>
@@ -1394,12 +1490,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9.60</t>
+          <t>9.00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1409,47 +1505,57 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>9.35</t>
+          <t>8.73</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>11.74 9.11 0.79 11.52 9.01 0.82</t>
+          <t>11.74</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>8.48 0.86 11.52 8.37</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
           <t>11.18</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>8.86</t>
-        </is>
-      </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>8.22</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
           <t>10.62</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>8.62</t>
-        </is>
-      </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0.94</t>
         </is>
       </c>
     </row>
@@ -1469,12 +1575,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>10.15</t>
+          <t>9.43</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1484,47 +1590,57 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>9.92</t>
+          <t>9.18</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>12.29 9.69 0.79 12.07 9.60 0.82</t>
+          <t>12.29</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>8.94 0.87 12.07 8.85</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
           <t>11.73</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>9.46</t>
-        </is>
-      </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>8.70</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
           <t>11.17</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>9.24</t>
-        </is>
-      </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0.95</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1650,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>66.9 80.1</t>
+          <t>67.0 80.0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1544,12 +1660,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>10.80</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1559,47 +1675,57 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>10.57</t>
+          <t>9.71</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>12.57 10.35 0.80 12.35 10.26 0.82</t>
+          <t>12.57</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>9.48 0.87 12.35 9.39</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>12.01</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>10.13</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>9.25</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
           <t>11.45</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>9.91</t>
-        </is>
-      </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0.95</t>
         </is>
       </c>
     </row>
@@ -1619,12 +1745,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>10.44</t>
+          <t>9.59</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1634,47 +1760,57 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>10.25</t>
+          <t>9.39</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>13.40 10.05 0.80 13.18 9.97 0.83</t>
+          <t>13.40</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>9.18 0.88 13.18 9.10</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
           <t>12.84</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>9.86</t>
-        </is>
-      </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>8.98</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
           <t>12.28</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>9.67</t>
-        </is>
-      </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0.95</t>
         </is>
       </c>
     </row>
@@ -1694,12 +1830,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>10.20</t>
+          <t>9.34</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1709,47 +1845,57 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>10.02</t>
+          <t>9.15</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>13.95 9.84 0.81 13.73 9.77 0.83</t>
+          <t>13.95</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>8.97 0.88 13.73 8.89</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
           <t>13.39</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>9.66</t>
-        </is>
-      </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>8.78</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
           <t>12.83</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>9.49</t>
-        </is>
-      </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0.96</t>
         </is>
       </c>
     </row>
@@ -1764,7 +1910,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1794,6 +1940,27 @@
       <c r="H1" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1804,7 +1971,7 @@
           <t>INDOOR</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>OUTDOOR TEMPERATURE (°CWB)</t>
         </is>
@@ -1819,20 +1986,26 @@
           <t>EDB</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>-10.0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>-5.0 0 6.1</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>–15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>–10</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>–5 0</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>6</v>
+      </c>
+      <c r="N3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1846,20 +2019,40 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TC PI</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>TC PI TC PI TC PI</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
           <t>TC</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>PI</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>TC</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr">
+        <is>
+          <t>PI</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>TC PI TC PI TC</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>PI</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>TC</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>PI</t>
         </is>
@@ -1876,22 +2069,42 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3.19 0.98</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>3.72 1.02 4.25 1.07 4.88 1.13</t>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.41</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>1.17</t>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2.82 0.69 3.79 0.90 4.37</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0.98</t>
         </is>
       </c>
     </row>
@@ -1906,22 +2119,42 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3.00 1.01</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>3.52 1.05 4.05 1.10 4.69 1.16</t>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.29</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>5.11</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>1.20</t>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2.70 0.71 3.65 0.92 4.22</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>1.00</t>
         </is>
       </c>
     </row>
@@ -1936,22 +2169,42 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2.96 1.01</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>3.49 1.06 4.02 1.11 4.66 1.17</t>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.24</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>1.20</t>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2.65 0.71 3.59 0.93 4.16</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>1.01</t>
         </is>
       </c>
     </row>
@@ -1966,22 +2219,42 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2.90 1.02</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3.43 1.07 3.96 1.12 4.59 1.18</t>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.19</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>1.18</t>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2.60 0.72 3.53 0.94 4.10</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>1.02</t>
         </is>
       </c>
     </row>
@@ -1996,22 +2269,42 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2.87 1.03</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>3.40 1.08 3.92 1.12 4.52 1.17</t>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.17</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>1.16</t>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2.57 0.72 3.50 0.94 4.07</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>1.02</t>
         </is>
       </c>
     </row>
@@ -2026,22 +2319,42 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2.80 1.04</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>3.33 1.09 3.86 1.13 4.11 1.13</t>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.12</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>1.12</t>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2.52 0.73 3.44 0.95 4.02</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>1.03</t>
         </is>
       </c>
     </row>
@@ -2056,7 +2369,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2089,6 +2402,24 @@
       <c r="I1" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -2102,14 +2433,20 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>OUTDOOR TEMPERATURE (°FWB)</t>
-        </is>
-      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>OUTDOOR TEMPERATURE (°FWB)</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -2121,24 +2458,30 @@
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>14.0</t>
-        </is>
+      <c r="D3" t="n">
+        <v>5</v>
       </c>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>23.0 32.0 43.0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>14</v>
+      </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>50.0</t>
-        </is>
-      </c>
+          <t>23 32</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>43</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
+        <v>50</v>
+      </c>
+      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -2154,24 +2497,42 @@
           <t>TC</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>PI</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>TC PI TC PI TC PI</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
+          <t>PI</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>TC PI TC PI TC</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>PI</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
           <t>TC</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
         <is>
           <t>PI</t>
         </is>
@@ -2188,29 +2549,47 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>10.88</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>12.69 1.02 14.50 1.07 16.65 1.13</t>
+          <t>8.24</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>18.12</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>9.62 0.69 12.94 0.90 14.90</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>16.20</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0.98</t>
         </is>
       </c>
     </row>
@@ -2225,29 +2604,47 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10.22</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>12.03 1.05 13.83 1.10 16.00 1.16</t>
+          <t>7.82</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>17.45</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>9.20 0.71 12.45 0.92 14.40</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>15.70</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>1.00</t>
         </is>
       </c>
     </row>
@@ -2262,29 +2659,47 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>10.10</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>11.91 1.06 13.72 1.11 15.90 1.17</t>
+          <t>7.65</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>17.33</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>9.03 0.71 12.25 0.93 14.20</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>15.50</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>1.01</t>
         </is>
       </c>
     </row>
@@ -2299,29 +2714,47 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>9.89</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>11.70 1.07 13.51 1.12 15.66 1.18</t>
+          <t>7.48</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>16.11</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>8.86 0.72 12.05 0.94 14.00</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>15.30</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>1.02</t>
         </is>
       </c>
     </row>
@@ -2336,29 +2769,47 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>9.79</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>11.60 1.08 13.38 1.12 15.41 1.17</t>
+          <t>7.39</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>15.41</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>8.78 0.72 11.95 0.94 13.90</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>15.20</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>1.02</t>
         </is>
       </c>
     </row>
@@ -2373,29 +2824,47 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>9.55</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>11.36 1.09 13.17 1.13 14.01 1.13</t>
+          <t>7.23</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>14.01</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>8.61 0.73 11.75 0.95 13.70</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>1.03</t>
         </is>
       </c>
     </row>
